--- a/LF/TAS/STP/st_lf_tas1_3_fts_result_202204.xlsx
+++ b/LF/TAS/STP/st_lf_tas1_3_fts_result_202204.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="341">
   <si>
     <t>type</t>
   </si>
@@ -227,6 +227,24 @@
   </si>
   <si>
     <t>${d_IDType} = "ID_generation"</t>
+  </si>
+  <si>
+    <t>d_generatedid2</t>
+  </si>
+  <si>
+    <t>Repita o código</t>
+  </si>
+  <si>
+    <t>Répéter le code</t>
+  </si>
+  <si>
+    <t>. = ${d_generatedid}</t>
+  </si>
+  <si>
+    <t>O código repetido deve ser o mesmo</t>
+  </si>
+  <si>
+    <t>Le code répété doit être le même</t>
   </si>
   <si>
     <t>d_lotnumber1</t>
@@ -2200,14 +2218,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2550,66 +2568,70 @@
       <c r="A10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="39" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="L10" s="17"/>
       <c r="M10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="16"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:16">
       <c r="A11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="I11" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="J11" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="23"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
       <c r="P11" s="16"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:16">
@@ -2622,18 +2644,20 @@
       <c r="C12" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="E12" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="40"/>
+        <v>86</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="47"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="23" t="s">
-        <v>86</v>
-      </c>
+      <c r="K12" s="23"/>
       <c r="L12" s="17"/>
       <c r="M12" s="34" t="s">
         <v>26</v>
@@ -2644,17 +2668,17 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:16">
       <c r="A13" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="39" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="16"/>
@@ -2662,7 +2686,7 @@
       <c r="I13" s="47"/>
       <c r="J13" s="40"/>
       <c r="K13" s="23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="34" t="s">
@@ -2674,23 +2698,27 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:16">
       <c r="A14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="39"/>
       <c r="F14" s="40"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="47"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="K14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="17"/>
       <c r="M14" s="34" t="s">
         <v>26</v>
       </c>
@@ -2698,125 +2726,121 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="71.25" spans="1:16">
+    <row r="15" s="3" customFormat="1" spans="1:16">
       <c r="A15" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="39" t="s">
         <v>96</v>
       </c>
+      <c r="B15" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="40"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="47"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="34"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:16">
+    <row r="16" s="3" customFormat="1" ht="71.25" spans="1:16">
       <c r="A16" s="16" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16" s="27"/>
-      <c r="E16" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="41"/>
+      <c r="E16" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="40"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>75</v>
-      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="23" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L16" s="16"/>
-      <c r="M16" s="34" t="s">
-        <v>26</v>
-      </c>
+      <c r="M16" s="34"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" s="3" customFormat="1" spans="1:16">
       <c r="A17" s="16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C17" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="25"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="27"/>
+        <v>109</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="E18" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="41"/>
+        <v>110</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>87</v>
+      </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="27"/>
       <c r="J18" s="41"/>
       <c r="K18" s="23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="34" t="s">
@@ -2828,17 +2852,17 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="41" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="25"/>
@@ -2846,7 +2870,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="41"/>
       <c r="K19" s="23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="34" t="s">
@@ -2858,128 +2882,132 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="26"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="41" t="s">
+        <v>112</v>
+      </c>
       <c r="F20" s="41"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="27"/>
       <c r="J20" s="41"/>
       <c r="K20" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="25"/>
+        <v>115</v>
+      </c>
+      <c r="L20" s="25"/>
+      <c r="M20" s="34" t="s">
+        <v>26</v>
+      </c>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" s="12" customFormat="1" spans="1:16">
+    <row r="21" spans="1:16">
       <c r="A21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-    </row>
-    <row r="22" s="13" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A22" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-    </row>
-    <row r="23" ht="42.75" spans="1:16">
-      <c r="A23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+    </row>
+    <row r="22" s="12" customFormat="1" spans="1:16">
+      <c r="A22" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+    </row>
+    <row r="23" s="13" customFormat="1" ht="28.5" spans="1:16">
+      <c r="A23" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+    </row>
+    <row r="24" ht="42.75" spans="1:16">
+      <c r="A24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="B24" s="25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="27"/>
       <c r="J24" s="41"/>
-      <c r="K24" s="30"/>
+      <c r="K24" s="23" t="s">
+        <v>125</v>
+      </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
@@ -2988,14 +3016,18 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="16" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="26"/>
+        <v>126</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>127</v>
+      </c>
       <c r="D25" s="27"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="41" t="s">
+        <v>128</v>
+      </c>
       <c r="F25" s="41"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
@@ -3010,10 +3042,10 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="16" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
@@ -3029,6 +3061,28 @@
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3058,7 +3112,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -3070,238 +3124,238 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:5">
       <c r="A17" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E18" s="9"/>
     </row>
@@ -3314,121 +3368,121 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" t="s">
         <v>178</v>
-      </c>
-      <c r="C26" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:1">
@@ -3436,2558 +3490,2558 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" t="s">
         <v>179</v>
-      </c>
-      <c r="C28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F39" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F40" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F43" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F44" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F46" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F47" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F48" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F55" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F56" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F57" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F58" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D59" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F59" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F60" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C61" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F61" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D62" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F62" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C63" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F63" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F64" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F65" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F66" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F67" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F68" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F69" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F70" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F72" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D73" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F73" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D74" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F74" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F75" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C76" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D78" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F78" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D79" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F79" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C80" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F80" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D81" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F81" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C82" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D82" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F82" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F83" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D84" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F84" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F85" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F86" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D87" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C88" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D88" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F88" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D89" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D90" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F90" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F91" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D92" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F92" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B93" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D93" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F93" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C94" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D94" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F94" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D95" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F95" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D96" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F96" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C97" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D97" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F97" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D98" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D99" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F99" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C100" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D100" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F100" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C101" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D101" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F101" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B102" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C102" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D102" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F102" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B103" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C103" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D103" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F103" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D104" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F104" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C105" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F105" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D106" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F106" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C107" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D107" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F107" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B108" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C108" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D108" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F108" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C109" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D109" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F109" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C110" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D110" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F110" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B111" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D111" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F111" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D112" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F112" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D113" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F113" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C114" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D114" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F114" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C115" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D115" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F115" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C116" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D116" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F116" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D117" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F117" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C118" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D118" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F118" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C119" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D119" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F119" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C120" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D120" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F120" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C121" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D121" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F121" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C122" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D122" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F122" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B123" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C123" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D123" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F123" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B124" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C124" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D124" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F124" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C125" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D125" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F125" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C126" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D126" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F126" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C127" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D127" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F127" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C128" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D128" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F128" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C129" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D129" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F129" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C130" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D130" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F130" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C131" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D131" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F131" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B132" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C132" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D132" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F132" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C133" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D133" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F133" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C134" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D134" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F134" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C135" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D135" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F135" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C136" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D136" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F136" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C137" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D137" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F137" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C138" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D138" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F138" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C139" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D139" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F139" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C140" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D140" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F140" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B141" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C141" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D141" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F141" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B142" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C142" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D142" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F142" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B143" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C143" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D143" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F143" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B144" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C144" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D144" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F144" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B145" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C145" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D145" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F145" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C146" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D146" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F146" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C147" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D147" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F147" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B148" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C148" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D148" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F148" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C149" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D149" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F149" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C150" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D150" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F150" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C151" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D151" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F151" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B152" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C152" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D152" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F152" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C153" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D153" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F153" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B154" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C154" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D154" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F154" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C155" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D155" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F155" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C156" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D156" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F156" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B157" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C157" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D157" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F157" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B158" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C158" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D158" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F158" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B159" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C159" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D159" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F159" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B160" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C160" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D160" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F160" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B161" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C161" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D161" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B162" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C162" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D162" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F162" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B163" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C163" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D163" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B164" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C164" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D164" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B165" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C165" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D165" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B166" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C166" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D166" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B167" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C167" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D167" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B168" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C168" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D168" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B169" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C169" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D169" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C170" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D170" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B171" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C171" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D171" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B172" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C172" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D172" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B173" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C173" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D173" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B174" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C174" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D174" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B175" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C175" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D175" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B176" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C176" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D176" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B177" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C177" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D177" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F177" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" customFormat="1"/>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B179">
         <v>101</v>
@@ -5999,12 +6053,12 @@
         <v>101</v>
       </c>
       <c r="G179" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B180">
         <v>102</v>
@@ -6016,12 +6070,12 @@
         <v>102</v>
       </c>
       <c r="G180" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B181">
         <v>103</v>
@@ -6033,12 +6087,12 @@
         <v>103</v>
       </c>
       <c r="G181" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B182">
         <v>104</v>
@@ -6050,12 +6104,12 @@
         <v>104</v>
       </c>
       <c r="G182" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B183">
         <v>105</v>
@@ -6067,12 +6121,12 @@
         <v>105</v>
       </c>
       <c r="G183" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B184">
         <v>106</v>
@@ -6084,12 +6138,12 @@
         <v>106</v>
       </c>
       <c r="G184" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B185">
         <v>107</v>
@@ -6101,12 +6155,12 @@
         <v>107</v>
       </c>
       <c r="G185" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B186">
         <v>108</v>
@@ -6118,12 +6172,12 @@
         <v>108</v>
       </c>
       <c r="G186" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B187">
         <v>109</v>
@@ -6135,12 +6189,12 @@
         <v>109</v>
       </c>
       <c r="G187" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B188">
         <v>110</v>
@@ -6152,12 +6206,12 @@
         <v>110</v>
       </c>
       <c r="G188" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B189">
         <v>111</v>
@@ -6169,12 +6223,12 @@
         <v>111</v>
       </c>
       <c r="G189" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B190">
         <v>112</v>
@@ -6186,12 +6240,12 @@
         <v>112</v>
       </c>
       <c r="G190" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B191">
         <v>113</v>
@@ -6203,12 +6257,12 @@
         <v>113</v>
       </c>
       <c r="G191" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B192">
         <v>114</v>
@@ -6220,12 +6274,12 @@
         <v>114</v>
       </c>
       <c r="G192" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B193">
         <v>115</v>
@@ -6237,12 +6291,12 @@
         <v>115</v>
       </c>
       <c r="G193" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B194">
         <v>116</v>
@@ -6254,12 +6308,12 @@
         <v>116</v>
       </c>
       <c r="G194" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B195">
         <v>117</v>
@@ -6271,12 +6325,12 @@
         <v>117</v>
       </c>
       <c r="G195" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B196">
         <v>118</v>
@@ -6288,12 +6342,12 @@
         <v>118</v>
       </c>
       <c r="G196" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B197">
         <v>119</v>
@@ -6305,12 +6359,12 @@
         <v>119</v>
       </c>
       <c r="G197" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B198">
         <v>120</v>
@@ -6322,12 +6376,12 @@
         <v>120</v>
       </c>
       <c r="G198" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B199">
         <v>121</v>
@@ -6339,12 +6393,12 @@
         <v>121</v>
       </c>
       <c r="G199" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B200">
         <v>122</v>
@@ -6356,12 +6410,12 @@
         <v>122</v>
       </c>
       <c r="G200" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B201">
         <v>123</v>
@@ -6373,12 +6427,12 @@
         <v>123</v>
       </c>
       <c r="G201" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B202">
         <v>124</v>
@@ -6390,12 +6444,12 @@
         <v>124</v>
       </c>
       <c r="G202" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B203">
         <v>125</v>
@@ -6407,12 +6461,12 @@
         <v>125</v>
       </c>
       <c r="G203" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B204">
         <v>126</v>
@@ -6424,12 +6478,12 @@
         <v>126</v>
       </c>
       <c r="G204" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B205">
         <v>127</v>
@@ -6441,12 +6495,12 @@
         <v>127</v>
       </c>
       <c r="G205" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B206">
         <v>128</v>
@@ -6458,12 +6512,12 @@
         <v>128</v>
       </c>
       <c r="G206" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B207">
         <v>129</v>
@@ -6475,12 +6529,12 @@
         <v>129</v>
       </c>
       <c r="G207" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B208">
         <v>130</v>
@@ -6492,12 +6546,12 @@
         <v>130</v>
       </c>
       <c r="G208" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B209">
         <v>131</v>
@@ -6509,12 +6563,12 @@
         <v>131</v>
       </c>
       <c r="G209" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B210">
         <v>132</v>
@@ -6526,12 +6580,12 @@
         <v>132</v>
       </c>
       <c r="G210" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B211">
         <v>133</v>
@@ -6543,12 +6597,12 @@
         <v>133</v>
       </c>
       <c r="G211" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B212">
         <v>134</v>
@@ -6560,12 +6614,12 @@
         <v>134</v>
       </c>
       <c r="G212" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B213">
         <v>135</v>
@@ -6577,12 +6631,12 @@
         <v>135</v>
       </c>
       <c r="G213" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B214">
         <v>136</v>
@@ -6594,12 +6648,12 @@
         <v>136</v>
       </c>
       <c r="G214" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B215">
         <v>137</v>
@@ -6611,12 +6665,12 @@
         <v>137</v>
       </c>
       <c r="G215" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B216">
         <v>138</v>
@@ -6628,12 +6682,12 @@
         <v>138</v>
       </c>
       <c r="G216" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B217">
         <v>139</v>
@@ -6645,12 +6699,12 @@
         <v>139</v>
       </c>
       <c r="G217" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B218">
         <v>140</v>
@@ -6662,12 +6716,12 @@
         <v>140</v>
       </c>
       <c r="G218" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B219">
         <v>141</v>
@@ -6679,12 +6733,12 @@
         <v>141</v>
       </c>
       <c r="G219" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B220">
         <v>142</v>
@@ -6696,12 +6750,12 @@
         <v>142</v>
       </c>
       <c r="G220" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B221">
         <v>143</v>
@@ -6713,12 +6767,12 @@
         <v>143</v>
       </c>
       <c r="G221" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B222">
         <v>144</v>
@@ -6730,12 +6784,12 @@
         <v>144</v>
       </c>
       <c r="G222" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B223">
         <v>145</v>
@@ -6747,12 +6801,12 @@
         <v>145</v>
       </c>
       <c r="G223" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B224">
         <v>146</v>
@@ -6764,12 +6818,12 @@
         <v>146</v>
       </c>
       <c r="G224" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B225">
         <v>147</v>
@@ -6781,12 +6835,12 @@
         <v>147</v>
       </c>
       <c r="G225" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B226">
         <v>148</v>
@@ -6798,12 +6852,12 @@
         <v>148</v>
       </c>
       <c r="G226" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B227">
         <v>149</v>
@@ -6815,12 +6869,12 @@
         <v>149</v>
       </c>
       <c r="G227" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B228">
         <v>150</v>
@@ -6832,12 +6886,12 @@
         <v>150</v>
       </c>
       <c r="G228" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B229">
         <v>151</v>
@@ -6849,12 +6903,12 @@
         <v>151</v>
       </c>
       <c r="G229" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B230">
         <v>152</v>
@@ -6866,12 +6920,12 @@
         <v>152</v>
       </c>
       <c r="G230" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B231">
         <v>153</v>
@@ -6883,12 +6937,12 @@
         <v>153</v>
       </c>
       <c r="G231" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B232">
         <v>154</v>
@@ -6900,12 +6954,12 @@
         <v>154</v>
       </c>
       <c r="G232" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B233">
         <v>155</v>
@@ -6917,12 +6971,12 @@
         <v>155</v>
       </c>
       <c r="G233" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B234">
         <v>156</v>
@@ -6934,12 +6988,12 @@
         <v>156</v>
       </c>
       <c r="G234" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B235">
         <v>157</v>
@@ -6951,12 +7005,12 @@
         <v>157</v>
       </c>
       <c r="G235" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B236">
         <v>158</v>
@@ -6968,12 +7022,12 @@
         <v>158</v>
       </c>
       <c r="G236" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B237">
         <v>159</v>
@@ -6985,12 +7039,12 @@
         <v>159</v>
       </c>
       <c r="G237" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B238">
         <v>160</v>
@@ -7002,12 +7056,12 @@
         <v>160</v>
       </c>
       <c r="G238" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B239">
         <v>161</v>
@@ -7019,12 +7073,12 @@
         <v>161</v>
       </c>
       <c r="G239" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B240">
         <v>162</v>
@@ -7036,12 +7090,12 @@
         <v>162</v>
       </c>
       <c r="G240" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B241">
         <v>163</v>
@@ -7053,12 +7107,12 @@
         <v>163</v>
       </c>
       <c r="G241" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B242">
         <v>164</v>
@@ -7070,12 +7124,12 @@
         <v>164</v>
       </c>
       <c r="G242" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B243">
         <v>165</v>
@@ -7087,12 +7141,12 @@
         <v>165</v>
       </c>
       <c r="G243" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B244">
         <v>166</v>
@@ -7104,12 +7158,12 @@
         <v>166</v>
       </c>
       <c r="G244" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B245">
         <v>167</v>
@@ -7121,12 +7175,12 @@
         <v>167</v>
       </c>
       <c r="G245" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B246">
         <v>168</v>
@@ -7138,12 +7192,12 @@
         <v>168</v>
       </c>
       <c r="G246" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B247">
         <v>169</v>
@@ -7155,12 +7209,12 @@
         <v>169</v>
       </c>
       <c r="G247" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B248">
         <v>170</v>
@@ -7172,12 +7226,12 @@
         <v>170</v>
       </c>
       <c r="G248" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B249">
         <v>171</v>
@@ -7189,12 +7243,12 @@
         <v>171</v>
       </c>
       <c r="G249" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B250">
         <v>172</v>
@@ -7206,12 +7260,12 @@
         <v>172</v>
       </c>
       <c r="G250" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B251">
         <v>173</v>
@@ -7223,12 +7277,12 @@
         <v>173</v>
       </c>
       <c r="G251" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B252">
         <v>174</v>
@@ -7240,12 +7294,12 @@
         <v>174</v>
       </c>
       <c r="G252" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B253">
         <v>175</v>
@@ -7257,12 +7311,12 @@
         <v>175</v>
       </c>
       <c r="G253" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B254">
         <v>176</v>
@@ -7274,12 +7328,12 @@
         <v>176</v>
       </c>
       <c r="G254" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B255">
         <v>177</v>
@@ -7291,12 +7345,12 @@
         <v>177</v>
       </c>
       <c r="G255" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B256">
         <v>178</v>
@@ -7308,12 +7362,12 @@
         <v>178</v>
       </c>
       <c r="G256" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B257">
         <v>179</v>
@@ -7325,12 +7379,12 @@
         <v>179</v>
       </c>
       <c r="G257" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B258">
         <v>180</v>
@@ -7342,12 +7396,12 @@
         <v>180</v>
       </c>
       <c r="G258" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B259">
         <v>181</v>
@@ -7359,12 +7413,12 @@
         <v>181</v>
       </c>
       <c r="G259" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B260">
         <v>182</v>
@@ -7376,12 +7430,12 @@
         <v>182</v>
       </c>
       <c r="G260" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B261">
         <v>183</v>
@@ -7393,12 +7447,12 @@
         <v>183</v>
       </c>
       <c r="G261" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B262">
         <v>184</v>
@@ -7410,12 +7464,12 @@
         <v>184</v>
       </c>
       <c r="G262" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B263">
         <v>185</v>
@@ -7427,12 +7481,12 @@
         <v>185</v>
       </c>
       <c r="G263" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B264">
         <v>186</v>
@@ -7444,12 +7498,12 @@
         <v>186</v>
       </c>
       <c r="G264" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B265">
         <v>187</v>
@@ -7461,12 +7515,12 @@
         <v>187</v>
       </c>
       <c r="G265" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B266">
         <v>188</v>
@@ -7478,12 +7532,12 @@
         <v>188</v>
       </c>
       <c r="G266" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B267">
         <v>189</v>
@@ -7495,12 +7549,12 @@
         <v>189</v>
       </c>
       <c r="G267" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B268">
         <v>190</v>
@@ -7512,12 +7566,12 @@
         <v>190</v>
       </c>
       <c r="G268" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B269">
         <v>191</v>
@@ -7529,12 +7583,12 @@
         <v>191</v>
       </c>
       <c r="G269" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B270">
         <v>192</v>
@@ -7546,12 +7600,12 @@
         <v>192</v>
       </c>
       <c r="G270" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B271">
         <v>193</v>
@@ -7563,12 +7617,12 @@
         <v>193</v>
       </c>
       <c r="G271" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B272">
         <v>194</v>
@@ -7580,12 +7634,12 @@
         <v>194</v>
       </c>
       <c r="G272" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B273">
         <v>195</v>
@@ -7597,12 +7651,12 @@
         <v>195</v>
       </c>
       <c r="G273" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B274">
         <v>196</v>
@@ -7614,12 +7668,12 @@
         <v>196</v>
       </c>
       <c r="G274" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B275">
         <v>197</v>
@@ -7631,12 +7685,12 @@
         <v>197</v>
       </c>
       <c r="G275" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B276">
         <v>198</v>
@@ -7648,12 +7702,12 @@
         <v>198</v>
       </c>
       <c r="G276" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B277">
         <v>199</v>
@@ -7665,12 +7719,12 @@
         <v>199</v>
       </c>
       <c r="G277" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B278">
         <v>200</v>
@@ -7682,12 +7736,12 @@
         <v>200</v>
       </c>
       <c r="G278" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B279">
         <v>201</v>
@@ -7699,12 +7753,12 @@
         <v>201</v>
       </c>
       <c r="G279" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B280">
         <v>202</v>
@@ -7716,12 +7770,12 @@
         <v>202</v>
       </c>
       <c r="G280" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B281">
         <v>203</v>
@@ -7733,12 +7787,12 @@
         <v>203</v>
       </c>
       <c r="G281" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B282">
         <v>204</v>
@@ -7750,12 +7804,12 @@
         <v>204</v>
       </c>
       <c r="G282" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B283">
         <v>205</v>
@@ -7767,12 +7821,12 @@
         <v>205</v>
       </c>
       <c r="G283" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B284">
         <v>206</v>
@@ -7784,12 +7838,12 @@
         <v>206</v>
       </c>
       <c r="G284" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B285">
         <v>207</v>
@@ -7801,12 +7855,12 @@
         <v>207</v>
       </c>
       <c r="G285" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B286">
         <v>208</v>
@@ -7818,12 +7872,12 @@
         <v>208</v>
       </c>
       <c r="G286" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B287">
         <v>209</v>
@@ -7835,12 +7889,12 @@
         <v>209</v>
       </c>
       <c r="G287" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B288">
         <v>210</v>
@@ -7852,12 +7906,12 @@
         <v>210</v>
       </c>
       <c r="G288" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B289">
         <v>211</v>
@@ -7869,12 +7923,12 @@
         <v>211</v>
       </c>
       <c r="G289" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B290">
         <v>212</v>
@@ -7886,12 +7940,12 @@
         <v>212</v>
       </c>
       <c r="G290" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B291">
         <v>213</v>
@@ -7903,12 +7957,12 @@
         <v>213</v>
       </c>
       <c r="G291" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B292">
         <v>214</v>
@@ -7920,12 +7974,12 @@
         <v>214</v>
       </c>
       <c r="G292" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B293">
         <v>215</v>
@@ -7937,12 +7991,12 @@
         <v>215</v>
       </c>
       <c r="G293" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B294">
         <v>216</v>
@@ -7954,12 +8008,12 @@
         <v>216</v>
       </c>
       <c r="G294" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B295">
         <v>217</v>
@@ -7971,12 +8025,12 @@
         <v>217</v>
       </c>
       <c r="G295" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B296">
         <v>218</v>
@@ -7988,12 +8042,12 @@
         <v>218</v>
       </c>
       <c r="G296" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B297">
         <v>219</v>
@@ -8005,12 +8059,12 @@
         <v>219</v>
       </c>
       <c r="G297" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B298">
         <v>220</v>
@@ -8022,12 +8076,12 @@
         <v>220</v>
       </c>
       <c r="G298" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B299">
         <v>221</v>
@@ -8039,12 +8093,12 @@
         <v>221</v>
       </c>
       <c r="G299" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B300">
         <v>222</v>
@@ -8056,12 +8110,12 @@
         <v>222</v>
       </c>
       <c r="G300" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B301">
         <v>223</v>
@@ -8073,12 +8127,12 @@
         <v>223</v>
       </c>
       <c r="G301" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B302">
         <v>224</v>
@@ -8090,12 +8144,12 @@
         <v>224</v>
       </c>
       <c r="G302" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B303">
         <v>225</v>
@@ -8107,12 +8161,12 @@
         <v>225</v>
       </c>
       <c r="G303" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B304">
         <v>226</v>
@@ -8124,12 +8178,12 @@
         <v>226</v>
       </c>
       <c r="G304" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B305">
         <v>227</v>
@@ -8141,12 +8195,12 @@
         <v>227</v>
       </c>
       <c r="G305" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B306">
         <v>228</v>
@@ -8158,12 +8212,12 @@
         <v>228</v>
       </c>
       <c r="G306" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B307">
         <v>229</v>
@@ -8175,12 +8229,12 @@
         <v>229</v>
       </c>
       <c r="G307" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B308">
         <v>230</v>
@@ -8192,12 +8246,12 @@
         <v>230</v>
       </c>
       <c r="G308" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B309">
         <v>231</v>
@@ -8209,12 +8263,12 @@
         <v>231</v>
       </c>
       <c r="G309" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B310">
         <v>232</v>
@@ -8226,12 +8280,12 @@
         <v>232</v>
       </c>
       <c r="G310" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B311">
         <v>233</v>
@@ -8243,12 +8297,12 @@
         <v>233</v>
       </c>
       <c r="G311" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B312">
         <v>234</v>
@@ -8260,12 +8314,12 @@
         <v>234</v>
       </c>
       <c r="G312" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B313">
         <v>235</v>
@@ -8277,12 +8331,12 @@
         <v>235</v>
       </c>
       <c r="G313" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B314">
         <v>236</v>
@@ -8294,12 +8348,12 @@
         <v>236</v>
       </c>
       <c r="G314" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B315">
         <v>237</v>
@@ -8311,12 +8365,12 @@
         <v>237</v>
       </c>
       <c r="G315" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B316">
         <v>238</v>
@@ -8328,12 +8382,12 @@
         <v>238</v>
       </c>
       <c r="G316" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B317">
         <v>239</v>
@@ -8345,12 +8399,12 @@
         <v>239</v>
       </c>
       <c r="G317" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B318">
         <v>240</v>
@@ -8362,12 +8416,12 @@
         <v>240</v>
       </c>
       <c r="G318" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B319">
         <v>241</v>
@@ -8379,12 +8433,12 @@
         <v>241</v>
       </c>
       <c r="G319" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B320">
         <v>242</v>
@@ -8396,12 +8450,12 @@
         <v>242</v>
       </c>
       <c r="G320" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B321">
         <v>243</v>
@@ -8413,12 +8467,12 @@
         <v>243</v>
       </c>
       <c r="G321" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B322">
         <v>244</v>
@@ -8430,12 +8484,12 @@
         <v>244</v>
       </c>
       <c r="G322" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B323">
         <v>245</v>
@@ -8447,12 +8501,12 @@
         <v>245</v>
       </c>
       <c r="G323" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B324">
         <v>246</v>
@@ -8464,12 +8518,12 @@
         <v>246</v>
       </c>
       <c r="G324" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B325">
         <v>247</v>
@@ -8481,12 +8535,12 @@
         <v>247</v>
       </c>
       <c r="G325" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B326">
         <v>248</v>
@@ -8498,12 +8552,12 @@
         <v>248</v>
       </c>
       <c r="G326" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B327">
         <v>249</v>
@@ -8515,12 +8569,12 @@
         <v>249</v>
       </c>
       <c r="G327" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B328">
         <v>250</v>
@@ -8532,7 +8586,7 @@
         <v>250</v>
       </c>
       <c r="G328" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -8562,24 +8616,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/STP/st_lf_tas1_3_fts_result_202204.xlsx
+++ b/LF/TAS/STP/st_lf_tas1_3_fts_result_202204.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="292">
   <si>
     <t>type</t>
   </si>
@@ -169,33 +169,6 @@
   </si>
   <si>
     <t>site_list = ${d_cluster_name}</t>
-  </si>
-  <si>
-    <t>select_one id_list</t>
-  </si>
-  <si>
-    <t>d_IDType</t>
-  </si>
-  <si>
-    <t>É necessário digitalizar um código de barras no teste de diagnóstico?</t>
-  </si>
-  <si>
-    <t>Avez-vous besoin de scanner le code barre sur le test diagnostique</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>d_BarcodeID</t>
-  </si>
-  <si>
-    <t>Digitalize agora o código de barras</t>
-  </si>
-  <si>
-    <t>Scanner le code-barres maintenant</t>
-  </si>
-  <si>
-    <t>${d_IDType} = "Scanner"</t>
   </si>
   <si>
     <t>string</t>
@@ -217,36 +190,6 @@
 Par exemple si le code généré était 123-1234-567, le deuxième et troisième partie du code est de 123-1234-567</t>
   </si>
   <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{4}-[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>The format must be 123-1234-567. Only the second and third parts of the code</t>
-  </si>
-  <si>
-    <t>Le format doit être 123-1234-567. Juste la deuxième et la troisième partie du code</t>
-  </si>
-  <si>
-    <t>${d_IDType} = "ID_generation"</t>
-  </si>
-  <si>
-    <t>d_generatedid2</t>
-  </si>
-  <si>
-    <t>Repita o código</t>
-  </si>
-  <si>
-    <t>Répéter le code</t>
-  </si>
-  <si>
-    <t>. = ${d_generatedid}</t>
-  </si>
-  <si>
-    <t>O código repetido deve ser o mesmo</t>
-  </si>
-  <si>
-    <t>Le code répété doit être le même</t>
-  </si>
-  <si>
     <t>d_lotnumber1</t>
   </si>
   <si>
@@ -307,108 +250,7 @@
     <t>selected(${d_why_Invalido1},'Other')</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>d_display_result1</t>
-  </si>
-  <si>
-    <t>${d_result1}</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>d_need_second_test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O resultado do primeiro teste deste participante foi ${d_display_result1}.  Este resultado requer um segundo teste.  Continuar este questionário para introduzir o segundo resultado do teste do participante.  </t>
-  </si>
-  <si>
-    <t>Le premier résultat du test de ce participant est ${d_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le deuxième résultat du test du participant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${d_result1} != 'Negativo' </t>
-  </si>
-  <si>
-    <t>d_lotnumber2</t>
-  </si>
-  <si>
-    <t>Por favor, introduza o lote nº 2 do FTS</t>
-  </si>
-  <si>
-    <t>Veuiller entrer le numéro de lot FTS 2</t>
-  </si>
-  <si>
-    <t>O lote deve ser um número de seis dígitos</t>
-  </si>
-  <si>
-    <t>d_result2</t>
-  </si>
-  <si>
-    <t>FTS - Teste 2</t>
-  </si>
-  <si>
-    <t>FTS - Test 2</t>
-  </si>
-  <si>
-    <t>d_why_Invalido2</t>
-  </si>
-  <si>
-    <t>Donnez la raison du test Invalidoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${d_result2} = 'Invalido' </t>
-  </si>
-  <si>
-    <t>d_why_Invalido_other2</t>
-  </si>
-  <si>
-    <t>selected(${d_why_Invalido2},'Other')</t>
-  </si>
-  <si>
-    <t>d_display_result2</t>
-  </si>
-  <si>
-    <t>d_final_result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(${d_result1}="Positivo" and ${d_result2}="Positivo", "Positivo",
- if(${d_result1}="Positivo" and ${d_result2}="Negativo", "Indeterminate", 
-  if(${d_result1}="Positivo" and ${d_result2}="Invalido", "Positivo", 
-   if(${d_result1}="Invalido" and ${d_result2}="Positivo", "Positivo", 
-    if(${d_result1}="Invalido" and ${d_result2}="Invalido", "Indeterminate", 
-     if(${d_result1}="Invalido" and ${d_result2}="Negativo", "Negativo", "Negativo")
-    )
-   )
-  )
- )
-)
-</t>
-  </si>
-  <si>
-    <t>d_display_final_result</t>
-  </si>
-  <si>
-    <t>O resultado final deste participante é: ${d_final_result}</t>
-  </si>
-  <si>
-    <t>Le résultat final de ce participant est : ${d_final_result}</t>
-  </si>
-  <si>
-    <t>d_Positivo_why_no_tx</t>
-  </si>
-  <si>
-    <t>Por favor especificar o plano para tratar este participante ou explicar porque é que o tratamento não é possível.</t>
-  </si>
-  <si>
-    <t>Veuillez préciser le plan de traitement de ce participant ou expliquer pourquoi le traitement n'est pas possible.</t>
-  </si>
-  <si>
-    <t>${d_final_result} = 'Positivo'</t>
-  </si>
-  <si>
-    <t>notes_part</t>
+    <t>d_notes</t>
   </si>
   <si>
     <t>Notas adicionais sobre o formulário</t>
@@ -1044,10 +886,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Abr 2022) 3. TAS1 FL - Resultado FTS</t>
-  </si>
-  <si>
-    <t>st_lf_tas1_3_fts_result_202204</t>
+    <t>(Abr 2022) 3. TAS1 FL - Resultado FTS V2</t>
+  </si>
+  <si>
+    <t>st_lf_tas1_3_fts_result_202204_2</t>
   </si>
   <si>
     <t>Portugese</t>
@@ -1058,12 +900,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1083,13 +925,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1121,6 +956,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1129,6 +1069,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1145,113 +1086,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,7 +1119,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1227,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,163 +1293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,17 +1358,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,6 +1392,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1572,6 +1416,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1588,30 +1447,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1623,152 +1458,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1799,7 +1634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1825,9 +1659,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1841,57 +1672,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2218,28 +2043,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="$A7:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.5037037037037" customWidth="1"/>
     <col min="2" max="2" width="19.8740740740741" customWidth="1"/>
-    <col min="3" max="3" width="42.6222222222222" style="13" customWidth="1"/>
+    <col min="3" max="3" width="42.6222222222222" style="12" customWidth="1"/>
     <col min="4" max="4" width="41.2518518518519" customWidth="1"/>
     <col min="5" max="5" width="47.5037037037037" customWidth="1"/>
     <col min="6" max="6" width="47.3777777777778" customWidth="1"/>
     <col min="7" max="7" width="12.6222222222222" customWidth="1"/>
     <col min="8" max="8" width="16.8740740740741" customWidth="1"/>
     <col min="9" max="10" width="29.5037037037037" customWidth="1"/>
-    <col min="11" max="11" width="49.3777777777778" style="13" customWidth="1"/>
+    <col min="11" max="11" width="49.3777777777778" style="12" customWidth="1"/>
     <col min="12" max="12" width="12.6222222222222" customWidth="1"/>
     <col min="13" max="13" width="9.74814814814815" customWidth="1"/>
     <col min="14" max="14" width="35.3777777777778" customWidth="1"/>
@@ -2248,52 +2073,52 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="36" spans="1:17">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -2301,788 +2126,398 @@
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="57" spans="1:16">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="16"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:16">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:16">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20" t="s">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="37" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A7" s="16" t="s">
+    <row r="7" s="3" customFormat="1" ht="42.75" spans="1:16">
+      <c r="A7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="33" t="s">
+      <c r="D7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="34" t="s">
+      <c r="E7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:16">
-      <c r="A8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="33" t="s">
+      <c r="C8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="17" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="34" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="42.75" spans="1:16">
-      <c r="A9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:16">
+      <c r="A9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="B9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="C9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="38" t="s">
+      <c r="D9" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="E9" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="F9" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:16">
+      <c r="A10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="34" t="s">
+      <c r="B10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:16">
-      <c r="A10" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:16">
+      <c r="A11" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="33" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="24" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:16">
-      <c r="A11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="39" t="s">
+      <c r="C12" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="17" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="B13" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:16">
-      <c r="A12" s="16" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B14" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:16">
-      <c r="A13" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:16">
-      <c r="A14" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:16">
-      <c r="A15" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="71.25" spans="1:16">
-      <c r="A16" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:16">
-      <c r="A17" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-    </row>
-    <row r="22" s="12" customFormat="1" spans="1:16">
-      <c r="A22" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-    </row>
-    <row r="23" s="13" customFormat="1" ht="28.5" spans="1:16">
-      <c r="A23" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="43"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-    </row>
-    <row r="24" ht="42.75" spans="1:16">
-      <c r="A24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3112,7 +2547,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -3124,238 +2559,238 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:5">
       <c r="A17" s="9" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="E18" s="9"/>
     </row>
@@ -3368,121 +2803,121 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
         <v>135</v>
       </c>
-      <c r="B26" t="s">
-        <v>184</v>
-      </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:1">
@@ -3490,2558 +2925,2558 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
         <v>136</v>
       </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="F30" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="F31" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="F34" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="F35" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="F37" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="F38" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="F39" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="F41" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="F43" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="F45" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="F46" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="F47" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="F48" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="F51" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="F52" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="F53" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="F54" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="F55" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="F56" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="F57" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="F58" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="F59" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="F60" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="F61" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="F62" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="F63" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="F64" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="F65" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="F66" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="F67" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="F68" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="F69" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="F70" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="F71" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="F72" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="F73" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="F74" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="F75" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="F76" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="F77" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="C78" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="F78" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="F79" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="F80" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="F81" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="F82" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="C83" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="F83" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="C84" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="F84" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="C85" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="F85" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="F86" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="C87" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="F87" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="C88" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="F88" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="F89" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="C90" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="F90" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="F91" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="C92" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="F92" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="F93" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="F94" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="F95" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="F96" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="F97" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="C98" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="F98" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="C99" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="F99" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="F100" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C101" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="F101" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B102" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="C102" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="D102" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="F102" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="C103" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="D103" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="F103" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B104" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="C104" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="D104" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="F104" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B105" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="C105" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="D105" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="F105" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B106" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="D106" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="F106" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="D107" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="F107" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="D108" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="F108" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B109" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="C109" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="D109" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="F109" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B110" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="C110" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="D110" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="F110" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B111" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="C111" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="D111" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="D112" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="D113" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="C114" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="D114" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="D115" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B116" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C116" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="D116" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="C117" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="D117" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="C118" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="D118" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B119" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="C119" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="D119" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B120" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="C120" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="D120" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B121" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="C121" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="D121" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="C122" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="D122" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B123" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="C123" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D123" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B124" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="C124" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="D124" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B125" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="C125" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="D125" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B126" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="C126" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="D126" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="F126" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B127" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="C127" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="D127" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="F127" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B128" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="C128" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="D128" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="F128" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B129" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="C129" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="D129" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="F129" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B130" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C130" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="D130" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B131" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="C131" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="D131" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="F131" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B132" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="C132" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="D132" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="F132" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B133" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="C133" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="D133" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="F133" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B134" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="C134" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="D134" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="F134" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B135" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="C135" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="D135" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="F135" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B136" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="C136" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="D136" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="F136" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B137" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="C137" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="D137" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="F137" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B138" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="C138" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="D138" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="F138" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B139" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="C139" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="D139" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="F139" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B140" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="C140" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="D140" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="F140" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B141" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="C141" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="D141" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="F141" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B142" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="C142" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="D142" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="F142" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="C143" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="D143" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="F143" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B144" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="C144" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="D144" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="F144" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B145" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="C145" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="D145" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="F145" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B146" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="C146" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="D146" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="F146" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B147" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="C147" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="D147" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="F147" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B148" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="C148" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="D148" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="F148" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B149" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C149" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="D149" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="F149" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B150" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="C150" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="D150" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="F150" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B151" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="C151" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D151" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="F151" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B152" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="C152" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="D152" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="F152" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B153" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="C153" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="D153" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="F153" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="C154" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="D154" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="F154" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B155" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="C155" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="D155" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="F155" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="C156" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="D156" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="F156" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B157" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="C157" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="D157" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="F157" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B158" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="C158" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="D158" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="F158" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="D159" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="F159" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B160" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="C160" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="D160" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="F160" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B161" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="C161" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="D161" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="F161" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="C162" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="D162" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="F162" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B163" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="C163" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="D163" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="F163" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B164" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="C164" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="D164" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="F164" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B165" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="C165" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="D165" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="F165" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B166" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="C166" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="D166" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="F166" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B167" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="C167" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="D167" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="F167" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B168" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="C168" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="D168" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="F168" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B169" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="C169" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="D169" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="F169" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B170" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="C170" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="D170" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="F170" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="C171" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="D171" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="F171" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B172" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="C172" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="D172" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="F172" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B173" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="C173" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="D173" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="F173" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B174" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="C174" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="D174" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="F174" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B175" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="C175" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="D175" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="F175" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B176" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="C176" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="D176" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="F176" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="B177" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="C177" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="D177" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="F177" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" customFormat="1"/>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B179">
         <v>101</v>
@@ -6053,12 +5488,12 @@
         <v>101</v>
       </c>
       <c r="G179" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B180">
         <v>102</v>
@@ -6070,12 +5505,12 @@
         <v>102</v>
       </c>
       <c r="G180" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B181">
         <v>103</v>
@@ -6087,12 +5522,12 @@
         <v>103</v>
       </c>
       <c r="G181" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B182">
         <v>104</v>
@@ -6104,12 +5539,12 @@
         <v>104</v>
       </c>
       <c r="G182" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B183">
         <v>105</v>
@@ -6121,12 +5556,12 @@
         <v>105</v>
       </c>
       <c r="G183" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B184">
         <v>106</v>
@@ -6138,12 +5573,12 @@
         <v>106</v>
       </c>
       <c r="G184" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B185">
         <v>107</v>
@@ -6155,12 +5590,12 @@
         <v>107</v>
       </c>
       <c r="G185" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B186">
         <v>108</v>
@@ -6172,12 +5607,12 @@
         <v>108</v>
       </c>
       <c r="G186" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B187">
         <v>109</v>
@@ -6189,12 +5624,12 @@
         <v>109</v>
       </c>
       <c r="G187" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B188">
         <v>110</v>
@@ -6206,12 +5641,12 @@
         <v>110</v>
       </c>
       <c r="G188" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B189">
         <v>111</v>
@@ -6223,12 +5658,12 @@
         <v>111</v>
       </c>
       <c r="G189" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B190">
         <v>112</v>
@@ -6240,12 +5675,12 @@
         <v>112</v>
       </c>
       <c r="G190" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B191">
         <v>113</v>
@@ -6257,12 +5692,12 @@
         <v>113</v>
       </c>
       <c r="G191" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B192">
         <v>114</v>
@@ -6274,12 +5709,12 @@
         <v>114</v>
       </c>
       <c r="G192" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B193">
         <v>115</v>
@@ -6291,12 +5726,12 @@
         <v>115</v>
       </c>
       <c r="G193" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B194">
         <v>116</v>
@@ -6308,12 +5743,12 @@
         <v>116</v>
       </c>
       <c r="G194" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B195">
         <v>117</v>
@@ -6325,12 +5760,12 @@
         <v>117</v>
       </c>
       <c r="G195" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B196">
         <v>118</v>
@@ -6342,12 +5777,12 @@
         <v>118</v>
       </c>
       <c r="G196" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B197">
         <v>119</v>
@@ -6359,12 +5794,12 @@
         <v>119</v>
       </c>
       <c r="G197" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B198">
         <v>120</v>
@@ -6376,12 +5811,12 @@
         <v>120</v>
       </c>
       <c r="G198" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B199">
         <v>121</v>
@@ -6393,12 +5828,12 @@
         <v>121</v>
       </c>
       <c r="G199" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B200">
         <v>122</v>
@@ -6410,12 +5845,12 @@
         <v>122</v>
       </c>
       <c r="G200" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B201">
         <v>123</v>
@@ -6427,12 +5862,12 @@
         <v>123</v>
       </c>
       <c r="G201" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B202">
         <v>124</v>
@@ -6444,12 +5879,12 @@
         <v>124</v>
       </c>
       <c r="G202" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B203">
         <v>125</v>
@@ -6461,12 +5896,12 @@
         <v>125</v>
       </c>
       <c r="G203" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B204">
         <v>126</v>
@@ -6478,12 +5913,12 @@
         <v>126</v>
       </c>
       <c r="G204" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B205">
         <v>127</v>
@@ -6495,12 +5930,12 @@
         <v>127</v>
       </c>
       <c r="G205" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B206">
         <v>128</v>
@@ -6512,12 +5947,12 @@
         <v>128</v>
       </c>
       <c r="G206" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B207">
         <v>129</v>
@@ -6529,12 +5964,12 @@
         <v>129</v>
       </c>
       <c r="G207" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B208">
         <v>130</v>
@@ -6546,12 +5981,12 @@
         <v>130</v>
       </c>
       <c r="G208" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B209">
         <v>131</v>
@@ -6563,12 +5998,12 @@
         <v>131</v>
       </c>
       <c r="G209" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B210">
         <v>132</v>
@@ -6580,12 +6015,12 @@
         <v>132</v>
       </c>
       <c r="G210" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B211">
         <v>133</v>
@@ -6597,12 +6032,12 @@
         <v>133</v>
       </c>
       <c r="G211" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B212">
         <v>134</v>
@@ -6614,12 +6049,12 @@
         <v>134</v>
       </c>
       <c r="G212" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B213">
         <v>135</v>
@@ -6631,12 +6066,12 @@
         <v>135</v>
       </c>
       <c r="G213" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B214">
         <v>136</v>
@@ -6648,12 +6083,12 @@
         <v>136</v>
       </c>
       <c r="G214" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B215">
         <v>137</v>
@@ -6665,12 +6100,12 @@
         <v>137</v>
       </c>
       <c r="G215" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B216">
         <v>138</v>
@@ -6682,12 +6117,12 @@
         <v>138</v>
       </c>
       <c r="G216" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B217">
         <v>139</v>
@@ -6699,12 +6134,12 @@
         <v>139</v>
       </c>
       <c r="G217" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B218">
         <v>140</v>
@@ -6716,12 +6151,12 @@
         <v>140</v>
       </c>
       <c r="G218" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B219">
         <v>141</v>
@@ -6733,12 +6168,12 @@
         <v>141</v>
       </c>
       <c r="G219" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B220">
         <v>142</v>
@@ -6750,12 +6185,12 @@
         <v>142</v>
       </c>
       <c r="G220" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B221">
         <v>143</v>
@@ -6767,12 +6202,12 @@
         <v>143</v>
       </c>
       <c r="G221" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B222">
         <v>144</v>
@@ -6784,12 +6219,12 @@
         <v>144</v>
       </c>
       <c r="G222" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B223">
         <v>145</v>
@@ -6801,12 +6236,12 @@
         <v>145</v>
       </c>
       <c r="G223" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B224">
         <v>146</v>
@@ -6818,12 +6253,12 @@
         <v>146</v>
       </c>
       <c r="G224" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B225">
         <v>147</v>
@@ -6835,12 +6270,12 @@
         <v>147</v>
       </c>
       <c r="G225" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B226">
         <v>148</v>
@@ -6852,12 +6287,12 @@
         <v>148</v>
       </c>
       <c r="G226" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B227">
         <v>149</v>
@@ -6869,12 +6304,12 @@
         <v>149</v>
       </c>
       <c r="G227" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B228">
         <v>150</v>
@@ -6886,12 +6321,12 @@
         <v>150</v>
       </c>
       <c r="G228" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B229">
         <v>151</v>
@@ -6903,12 +6338,12 @@
         <v>151</v>
       </c>
       <c r="G229" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B230">
         <v>152</v>
@@ -6920,12 +6355,12 @@
         <v>152</v>
       </c>
       <c r="G230" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B231">
         <v>153</v>
@@ -6937,12 +6372,12 @@
         <v>153</v>
       </c>
       <c r="G231" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B232">
         <v>154</v>
@@ -6954,12 +6389,12 @@
         <v>154</v>
       </c>
       <c r="G232" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B233">
         <v>155</v>
@@ -6971,12 +6406,12 @@
         <v>155</v>
       </c>
       <c r="G233" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B234">
         <v>156</v>
@@ -6988,12 +6423,12 @@
         <v>156</v>
       </c>
       <c r="G234" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B235">
         <v>157</v>
@@ -7005,12 +6440,12 @@
         <v>157</v>
       </c>
       <c r="G235" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B236">
         <v>158</v>
@@ -7022,12 +6457,12 @@
         <v>158</v>
       </c>
       <c r="G236" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B237">
         <v>159</v>
@@ -7039,12 +6474,12 @@
         <v>159</v>
       </c>
       <c r="G237" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B238">
         <v>160</v>
@@ -7056,12 +6491,12 @@
         <v>160</v>
       </c>
       <c r="G238" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B239">
         <v>161</v>
@@ -7073,12 +6508,12 @@
         <v>161</v>
       </c>
       <c r="G239" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B240">
         <v>162</v>
@@ -7090,12 +6525,12 @@
         <v>162</v>
       </c>
       <c r="G240" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B241">
         <v>163</v>
@@ -7107,12 +6542,12 @@
         <v>163</v>
       </c>
       <c r="G241" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B242">
         <v>164</v>
@@ -7124,12 +6559,12 @@
         <v>164</v>
       </c>
       <c r="G242" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B243">
         <v>165</v>
@@ -7141,12 +6576,12 @@
         <v>165</v>
       </c>
       <c r="G243" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B244">
         <v>166</v>
@@ -7158,12 +6593,12 @@
         <v>166</v>
       </c>
       <c r="G244" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B245">
         <v>167</v>
@@ -7175,12 +6610,12 @@
         <v>167</v>
       </c>
       <c r="G245" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B246">
         <v>168</v>
@@ -7192,12 +6627,12 @@
         <v>168</v>
       </c>
       <c r="G246" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B247">
         <v>169</v>
@@ -7209,12 +6644,12 @@
         <v>169</v>
       </c>
       <c r="G247" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B248">
         <v>170</v>
@@ -7226,12 +6661,12 @@
         <v>170</v>
       </c>
       <c r="G248" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B249">
         <v>171</v>
@@ -7243,12 +6678,12 @@
         <v>171</v>
       </c>
       <c r="G249" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B250">
         <v>172</v>
@@ -7260,12 +6695,12 @@
         <v>172</v>
       </c>
       <c r="G250" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B251">
         <v>173</v>
@@ -7277,12 +6712,12 @@
         <v>173</v>
       </c>
       <c r="G251" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B252">
         <v>174</v>
@@ -7294,12 +6729,12 @@
         <v>174</v>
       </c>
       <c r="G252" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B253">
         <v>175</v>
@@ -7311,12 +6746,12 @@
         <v>175</v>
       </c>
       <c r="G253" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B254">
         <v>176</v>
@@ -7328,12 +6763,12 @@
         <v>176</v>
       </c>
       <c r="G254" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B255">
         <v>177</v>
@@ -7345,12 +6780,12 @@
         <v>177</v>
       </c>
       <c r="G255" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B256">
         <v>178</v>
@@ -7362,12 +6797,12 @@
         <v>178</v>
       </c>
       <c r="G256" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B257">
         <v>179</v>
@@ -7379,12 +6814,12 @@
         <v>179</v>
       </c>
       <c r="G257" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B258">
         <v>180</v>
@@ -7396,12 +6831,12 @@
         <v>180</v>
       </c>
       <c r="G258" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B259">
         <v>181</v>
@@ -7413,12 +6848,12 @@
         <v>181</v>
       </c>
       <c r="G259" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B260">
         <v>182</v>
@@ -7430,12 +6865,12 @@
         <v>182</v>
       </c>
       <c r="G260" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B261">
         <v>183</v>
@@ -7447,12 +6882,12 @@
         <v>183</v>
       </c>
       <c r="G261" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B262">
         <v>184</v>
@@ -7464,12 +6899,12 @@
         <v>184</v>
       </c>
       <c r="G262" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>185</v>
@@ -7481,12 +6916,12 @@
         <v>185</v>
       </c>
       <c r="G263" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B264">
         <v>186</v>
@@ -7498,12 +6933,12 @@
         <v>186</v>
       </c>
       <c r="G264" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B265">
         <v>187</v>
@@ -7515,12 +6950,12 @@
         <v>187</v>
       </c>
       <c r="G265" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B266">
         <v>188</v>
@@ -7532,12 +6967,12 @@
         <v>188</v>
       </c>
       <c r="G266" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B267">
         <v>189</v>
@@ -7549,12 +6984,12 @@
         <v>189</v>
       </c>
       <c r="G267" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B268">
         <v>190</v>
@@ -7566,12 +7001,12 @@
         <v>190</v>
       </c>
       <c r="G268" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B269">
         <v>191</v>
@@ -7583,12 +7018,12 @@
         <v>191</v>
       </c>
       <c r="G269" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B270">
         <v>192</v>
@@ -7600,12 +7035,12 @@
         <v>192</v>
       </c>
       <c r="G270" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B271">
         <v>193</v>
@@ -7617,12 +7052,12 @@
         <v>193</v>
       </c>
       <c r="G271" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B272">
         <v>194</v>
@@ -7634,12 +7069,12 @@
         <v>194</v>
       </c>
       <c r="G272" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B273">
         <v>195</v>
@@ -7651,12 +7086,12 @@
         <v>195</v>
       </c>
       <c r="G273" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B274">
         <v>196</v>
@@ -7668,12 +7103,12 @@
         <v>196</v>
       </c>
       <c r="G274" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B275">
         <v>197</v>
@@ -7685,12 +7120,12 @@
         <v>197</v>
       </c>
       <c r="G275" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B276">
         <v>198</v>
@@ -7702,12 +7137,12 @@
         <v>198</v>
       </c>
       <c r="G276" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B277">
         <v>199</v>
@@ -7719,12 +7154,12 @@
         <v>199</v>
       </c>
       <c r="G277" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B278">
         <v>200</v>
@@ -7736,12 +7171,12 @@
         <v>200</v>
       </c>
       <c r="G278" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B279">
         <v>201</v>
@@ -7753,12 +7188,12 @@
         <v>201</v>
       </c>
       <c r="G279" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B280">
         <v>202</v>
@@ -7770,12 +7205,12 @@
         <v>202</v>
       </c>
       <c r="G280" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B281">
         <v>203</v>
@@ -7787,12 +7222,12 @@
         <v>203</v>
       </c>
       <c r="G281" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B282">
         <v>204</v>
@@ -7804,12 +7239,12 @@
         <v>204</v>
       </c>
       <c r="G282" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B283">
         <v>205</v>
@@ -7821,12 +7256,12 @@
         <v>205</v>
       </c>
       <c r="G283" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B284">
         <v>206</v>
@@ -7838,12 +7273,12 @@
         <v>206</v>
       </c>
       <c r="G284" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B285">
         <v>207</v>
@@ -7855,12 +7290,12 @@
         <v>207</v>
       </c>
       <c r="G285" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B286">
         <v>208</v>
@@ -7872,12 +7307,12 @@
         <v>208</v>
       </c>
       <c r="G286" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B287">
         <v>209</v>
@@ -7889,12 +7324,12 @@
         <v>209</v>
       </c>
       <c r="G287" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B288">
         <v>210</v>
@@ -7906,12 +7341,12 @@
         <v>210</v>
       </c>
       <c r="G288" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B289">
         <v>211</v>
@@ -7923,12 +7358,12 @@
         <v>211</v>
       </c>
       <c r="G289" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B290">
         <v>212</v>
@@ -7940,12 +7375,12 @@
         <v>212</v>
       </c>
       <c r="G290" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B291">
         <v>213</v>
@@ -7957,12 +7392,12 @@
         <v>213</v>
       </c>
       <c r="G291" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B292">
         <v>214</v>
@@ -7974,12 +7409,12 @@
         <v>214</v>
       </c>
       <c r="G292" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B293">
         <v>215</v>
@@ -7991,12 +7426,12 @@
         <v>215</v>
       </c>
       <c r="G293" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B294">
         <v>216</v>
@@ -8008,12 +7443,12 @@
         <v>216</v>
       </c>
       <c r="G294" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B295">
         <v>217</v>
@@ -8025,12 +7460,12 @@
         <v>217</v>
       </c>
       <c r="G295" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B296">
         <v>218</v>
@@ -8042,12 +7477,12 @@
         <v>218</v>
       </c>
       <c r="G296" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B297">
         <v>219</v>
@@ -8059,12 +7494,12 @@
         <v>219</v>
       </c>
       <c r="G297" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B298">
         <v>220</v>
@@ -8076,12 +7511,12 @@
         <v>220</v>
       </c>
       <c r="G298" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B299">
         <v>221</v>
@@ -8093,12 +7528,12 @@
         <v>221</v>
       </c>
       <c r="G299" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B300">
         <v>222</v>
@@ -8110,12 +7545,12 @@
         <v>222</v>
       </c>
       <c r="G300" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B301">
         <v>223</v>
@@ -8127,12 +7562,12 @@
         <v>223</v>
       </c>
       <c r="G301" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B302">
         <v>224</v>
@@ -8144,12 +7579,12 @@
         <v>224</v>
       </c>
       <c r="G302" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B303">
         <v>225</v>
@@ -8161,12 +7596,12 @@
         <v>225</v>
       </c>
       <c r="G303" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B304">
         <v>226</v>
@@ -8178,12 +7613,12 @@
         <v>226</v>
       </c>
       <c r="G304" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B305">
         <v>227</v>
@@ -8195,12 +7630,12 @@
         <v>227</v>
       </c>
       <c r="G305" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B306">
         <v>228</v>
@@ -8212,12 +7647,12 @@
         <v>228</v>
       </c>
       <c r="G306" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B307">
         <v>229</v>
@@ -8229,12 +7664,12 @@
         <v>229</v>
       </c>
       <c r="G307" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B308">
         <v>230</v>
@@ -8246,12 +7681,12 @@
         <v>230</v>
       </c>
       <c r="G308" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B309">
         <v>231</v>
@@ -8263,12 +7698,12 @@
         <v>231</v>
       </c>
       <c r="G309" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B310">
         <v>232</v>
@@ -8280,12 +7715,12 @@
         <v>232</v>
       </c>
       <c r="G310" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B311">
         <v>233</v>
@@ -8297,12 +7732,12 @@
         <v>233</v>
       </c>
       <c r="G311" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B312">
         <v>234</v>
@@ -8314,12 +7749,12 @@
         <v>234</v>
       </c>
       <c r="G312" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B313">
         <v>235</v>
@@ -8331,12 +7766,12 @@
         <v>235</v>
       </c>
       <c r="G313" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B314">
         <v>236</v>
@@ -8348,12 +7783,12 @@
         <v>236</v>
       </c>
       <c r="G314" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B315">
         <v>237</v>
@@ -8365,12 +7800,12 @@
         <v>237</v>
       </c>
       <c r="G315" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B316">
         <v>238</v>
@@ -8382,12 +7817,12 @@
         <v>238</v>
       </c>
       <c r="G316" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B317">
         <v>239</v>
@@ -8399,12 +7834,12 @@
         <v>239</v>
       </c>
       <c r="G317" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B318">
         <v>240</v>
@@ -8416,12 +7851,12 @@
         <v>240</v>
       </c>
       <c r="G318" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B319">
         <v>241</v>
@@ -8433,12 +7868,12 @@
         <v>241</v>
       </c>
       <c r="G319" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B320">
         <v>242</v>
@@ -8450,12 +7885,12 @@
         <v>242</v>
       </c>
       <c r="G320" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B321">
         <v>243</v>
@@ -8467,12 +7902,12 @@
         <v>243</v>
       </c>
       <c r="G321" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B322">
         <v>244</v>
@@ -8484,12 +7919,12 @@
         <v>244</v>
       </c>
       <c r="G322" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B323">
         <v>245</v>
@@ -8501,12 +7936,12 @@
         <v>245</v>
       </c>
       <c r="G323" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B324">
         <v>246</v>
@@ -8518,12 +7953,12 @@
         <v>246</v>
       </c>
       <c r="G324" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B325">
         <v>247</v>
@@ -8535,12 +7970,12 @@
         <v>247</v>
       </c>
       <c r="G325" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B326">
         <v>248</v>
@@ -8552,12 +7987,12 @@
         <v>248</v>
       </c>
       <c r="G326" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B327">
         <v>249</v>
@@ -8569,12 +8004,12 @@
         <v>249</v>
       </c>
       <c r="G327" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B328">
         <v>250</v>
@@ -8586,7 +8021,7 @@
         <v>250</v>
       </c>
       <c r="G328" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -8605,7 +8040,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -8616,24 +8051,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/STP/st_lf_tas1_3_fts_result_202204.xlsx
+++ b/LF/TAS/STP/st_lf_tas1_3_fts_result_202204.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="293">
   <si>
     <t>type</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>d_end</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
   <si>
     <t>list_name</t>
@@ -2043,14 +2046,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="$A7:$XFD8"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2518,6 +2521,11 @@
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2547,7 +2555,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2559,238 +2567,238 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:5">
       <c r="A17" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" s="9"/>
     </row>
@@ -2803,121 +2811,121 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
         <v>130</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:1">
@@ -2925,2558 +2933,2558 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F76" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F77" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F79" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F82" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F83" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F85" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F86" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D89" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F89" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D91" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F91" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F92" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D93" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F93" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D105" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D106" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F106" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F107" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F108" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F109" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B115" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C115" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D115" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B116" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D116" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B118" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C118" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D118" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D124" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D125" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F128" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D129" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F129" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D130" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F130" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D131" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B132" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C132" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D132" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F132" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B133" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C133" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D133" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F133" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B136" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C136" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D136" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F138" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F139" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F140" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B141" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C141" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D141" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F141" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F142" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B143" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C143" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D143" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F143" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B144" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C144" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D144" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F144" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B145" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C145" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D145" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F145" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B146" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C146" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D146" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F146" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B147" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C147" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D147" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F147" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B148" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C148" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D148" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F148" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B149" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C149" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D149" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F149" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B150" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C150" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D150" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F150" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B151" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C151" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D151" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F151" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B152" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C152" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D152" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F152" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C153" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D153" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F153" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B154" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C154" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D154" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F154" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D155" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F155" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D156" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F156" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F157" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F158" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F159" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F160" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F161" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B162" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C162" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D162" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F162" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F163" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B164" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C164" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D164" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F164" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B165" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C165" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D165" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F165" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F166" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B167" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C167" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D167" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F167" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B168" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C168" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D168" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F168" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B169" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C169" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D169" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F169" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B170" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C170" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D170" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F170" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B171" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C171" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D171" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F171" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B172" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C172" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D172" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F172" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B173" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C173" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D173" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F173" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B174" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C174" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D174" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F174" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B175" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C175" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D175" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F175" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B176" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C176" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D176" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F176" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B177" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C177" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D177" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F177" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178" customFormat="1"/>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B179">
         <v>101</v>
@@ -5488,12 +5496,12 @@
         <v>101</v>
       </c>
       <c r="G179" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B180">
         <v>102</v>
@@ -5505,12 +5513,12 @@
         <v>102</v>
       </c>
       <c r="G180" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B181">
         <v>103</v>
@@ -5522,12 +5530,12 @@
         <v>103</v>
       </c>
       <c r="G181" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B182">
         <v>104</v>
@@ -5539,12 +5547,12 @@
         <v>104</v>
       </c>
       <c r="G182" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B183">
         <v>105</v>
@@ -5556,12 +5564,12 @@
         <v>105</v>
       </c>
       <c r="G183" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B184">
         <v>106</v>
@@ -5573,12 +5581,12 @@
         <v>106</v>
       </c>
       <c r="G184" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B185">
         <v>107</v>
@@ -5590,12 +5598,12 @@
         <v>107</v>
       </c>
       <c r="G185" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B186">
         <v>108</v>
@@ -5607,12 +5615,12 @@
         <v>108</v>
       </c>
       <c r="G186" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B187">
         <v>109</v>
@@ -5624,12 +5632,12 @@
         <v>109</v>
       </c>
       <c r="G187" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B188">
         <v>110</v>
@@ -5641,12 +5649,12 @@
         <v>110</v>
       </c>
       <c r="G188" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B189">
         <v>111</v>
@@ -5658,12 +5666,12 @@
         <v>111</v>
       </c>
       <c r="G189" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B190">
         <v>112</v>
@@ -5675,12 +5683,12 @@
         <v>112</v>
       </c>
       <c r="G190" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B191">
         <v>113</v>
@@ -5692,12 +5700,12 @@
         <v>113</v>
       </c>
       <c r="G191" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B192">
         <v>114</v>
@@ -5709,12 +5717,12 @@
         <v>114</v>
       </c>
       <c r="G192" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B193">
         <v>115</v>
@@ -5726,12 +5734,12 @@
         <v>115</v>
       </c>
       <c r="G193" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B194">
         <v>116</v>
@@ -5743,12 +5751,12 @@
         <v>116</v>
       </c>
       <c r="G194" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B195">
         <v>117</v>
@@ -5760,12 +5768,12 @@
         <v>117</v>
       </c>
       <c r="G195" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B196">
         <v>118</v>
@@ -5777,12 +5785,12 @@
         <v>118</v>
       </c>
       <c r="G196" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B197">
         <v>119</v>
@@ -5794,12 +5802,12 @@
         <v>119</v>
       </c>
       <c r="G197" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B198">
         <v>120</v>
@@ -5811,12 +5819,12 @@
         <v>120</v>
       </c>
       <c r="G198" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B199">
         <v>121</v>
@@ -5828,12 +5836,12 @@
         <v>121</v>
       </c>
       <c r="G199" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B200">
         <v>122</v>
@@ -5845,12 +5853,12 @@
         <v>122</v>
       </c>
       <c r="G200" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B201">
         <v>123</v>
@@ -5862,12 +5870,12 @@
         <v>123</v>
       </c>
       <c r="G201" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B202">
         <v>124</v>
@@ -5879,12 +5887,12 @@
         <v>124</v>
       </c>
       <c r="G202" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B203">
         <v>125</v>
@@ -5896,12 +5904,12 @@
         <v>125</v>
       </c>
       <c r="G203" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B204">
         <v>126</v>
@@ -5913,12 +5921,12 @@
         <v>126</v>
       </c>
       <c r="G204" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B205">
         <v>127</v>
@@ -5930,12 +5938,12 @@
         <v>127</v>
       </c>
       <c r="G205" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B206">
         <v>128</v>
@@ -5947,12 +5955,12 @@
         <v>128</v>
       </c>
       <c r="G206" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B207">
         <v>129</v>
@@ -5964,12 +5972,12 @@
         <v>129</v>
       </c>
       <c r="G207" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B208">
         <v>130</v>
@@ -5981,12 +5989,12 @@
         <v>130</v>
       </c>
       <c r="G208" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B209">
         <v>131</v>
@@ -5998,12 +6006,12 @@
         <v>131</v>
       </c>
       <c r="G209" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B210">
         <v>132</v>
@@ -6015,12 +6023,12 @@
         <v>132</v>
       </c>
       <c r="G210" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B211">
         <v>133</v>
@@ -6032,12 +6040,12 @@
         <v>133</v>
       </c>
       <c r="G211" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B212">
         <v>134</v>
@@ -6049,12 +6057,12 @@
         <v>134</v>
       </c>
       <c r="G212" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B213">
         <v>135</v>
@@ -6066,12 +6074,12 @@
         <v>135</v>
       </c>
       <c r="G213" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B214">
         <v>136</v>
@@ -6083,12 +6091,12 @@
         <v>136</v>
       </c>
       <c r="G214" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B215">
         <v>137</v>
@@ -6100,12 +6108,12 @@
         <v>137</v>
       </c>
       <c r="G215" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B216">
         <v>138</v>
@@ -6117,12 +6125,12 @@
         <v>138</v>
       </c>
       <c r="G216" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B217">
         <v>139</v>
@@ -6134,12 +6142,12 @@
         <v>139</v>
       </c>
       <c r="G217" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B218">
         <v>140</v>
@@ -6151,12 +6159,12 @@
         <v>140</v>
       </c>
       <c r="G218" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B219">
         <v>141</v>
@@ -6168,12 +6176,12 @@
         <v>141</v>
       </c>
       <c r="G219" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B220">
         <v>142</v>
@@ -6185,12 +6193,12 @@
         <v>142</v>
       </c>
       <c r="G220" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B221">
         <v>143</v>
@@ -6202,12 +6210,12 @@
         <v>143</v>
       </c>
       <c r="G221" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B222">
         <v>144</v>
@@ -6219,12 +6227,12 @@
         <v>144</v>
       </c>
       <c r="G222" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B223">
         <v>145</v>
@@ -6236,12 +6244,12 @@
         <v>145</v>
       </c>
       <c r="G223" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B224">
         <v>146</v>
@@ -6253,12 +6261,12 @@
         <v>146</v>
       </c>
       <c r="G224" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B225">
         <v>147</v>
@@ -6270,12 +6278,12 @@
         <v>147</v>
       </c>
       <c r="G225" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B226">
         <v>148</v>
@@ -6287,12 +6295,12 @@
         <v>148</v>
       </c>
       <c r="G226" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B227">
         <v>149</v>
@@ -6304,12 +6312,12 @@
         <v>149</v>
       </c>
       <c r="G227" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B228">
         <v>150</v>
@@ -6321,12 +6329,12 @@
         <v>150</v>
       </c>
       <c r="G228" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B229">
         <v>151</v>
@@ -6338,12 +6346,12 @@
         <v>151</v>
       </c>
       <c r="G229" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B230">
         <v>152</v>
@@ -6355,12 +6363,12 @@
         <v>152</v>
       </c>
       <c r="G230" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B231">
         <v>153</v>
@@ -6372,12 +6380,12 @@
         <v>153</v>
       </c>
       <c r="G231" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B232">
         <v>154</v>
@@ -6389,12 +6397,12 @@
         <v>154</v>
       </c>
       <c r="G232" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B233">
         <v>155</v>
@@ -6406,12 +6414,12 @@
         <v>155</v>
       </c>
       <c r="G233" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B234">
         <v>156</v>
@@ -6423,12 +6431,12 @@
         <v>156</v>
       </c>
       <c r="G234" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B235">
         <v>157</v>
@@ -6440,12 +6448,12 @@
         <v>157</v>
       </c>
       <c r="G235" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B236">
         <v>158</v>
@@ -6457,12 +6465,12 @@
         <v>158</v>
       </c>
       <c r="G236" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B237">
         <v>159</v>
@@ -6474,12 +6482,12 @@
         <v>159</v>
       </c>
       <c r="G237" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B238">
         <v>160</v>
@@ -6491,12 +6499,12 @@
         <v>160</v>
       </c>
       <c r="G238" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B239">
         <v>161</v>
@@ -6508,12 +6516,12 @@
         <v>161</v>
       </c>
       <c r="G239" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B240">
         <v>162</v>
@@ -6525,12 +6533,12 @@
         <v>162</v>
       </c>
       <c r="G240" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B241">
         <v>163</v>
@@ -6542,12 +6550,12 @@
         <v>163</v>
       </c>
       <c r="G241" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B242">
         <v>164</v>
@@ -6559,12 +6567,12 @@
         <v>164</v>
       </c>
       <c r="G242" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B243">
         <v>165</v>
@@ -6576,12 +6584,12 @@
         <v>165</v>
       </c>
       <c r="G243" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B244">
         <v>166</v>
@@ -6593,12 +6601,12 @@
         <v>166</v>
       </c>
       <c r="G244" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B245">
         <v>167</v>
@@ -6610,12 +6618,12 @@
         <v>167</v>
       </c>
       <c r="G245" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B246">
         <v>168</v>
@@ -6627,12 +6635,12 @@
         <v>168</v>
       </c>
       <c r="G246" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B247">
         <v>169</v>
@@ -6644,12 +6652,12 @@
         <v>169</v>
       </c>
       <c r="G247" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B248">
         <v>170</v>
@@ -6661,12 +6669,12 @@
         <v>170</v>
       </c>
       <c r="G248" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B249">
         <v>171</v>
@@ -6678,12 +6686,12 @@
         <v>171</v>
       </c>
       <c r="G249" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B250">
         <v>172</v>
@@ -6695,12 +6703,12 @@
         <v>172</v>
       </c>
       <c r="G250" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B251">
         <v>173</v>
@@ -6712,12 +6720,12 @@
         <v>173</v>
       </c>
       <c r="G251" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B252">
         <v>174</v>
@@ -6729,12 +6737,12 @@
         <v>174</v>
       </c>
       <c r="G252" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B253">
         <v>175</v>
@@ -6746,12 +6754,12 @@
         <v>175</v>
       </c>
       <c r="G253" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B254">
         <v>176</v>
@@ -6763,12 +6771,12 @@
         <v>176</v>
       </c>
       <c r="G254" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B255">
         <v>177</v>
@@ -6780,12 +6788,12 @@
         <v>177</v>
       </c>
       <c r="G255" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B256">
         <v>178</v>
@@ -6797,12 +6805,12 @@
         <v>178</v>
       </c>
       <c r="G256" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B257">
         <v>179</v>
@@ -6814,12 +6822,12 @@
         <v>179</v>
       </c>
       <c r="G257" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B258">
         <v>180</v>
@@ -6831,12 +6839,12 @@
         <v>180</v>
       </c>
       <c r="G258" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B259">
         <v>181</v>
@@ -6848,12 +6856,12 @@
         <v>181</v>
       </c>
       <c r="G259" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B260">
         <v>182</v>
@@ -6865,12 +6873,12 @@
         <v>182</v>
       </c>
       <c r="G260" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B261">
         <v>183</v>
@@ -6882,12 +6890,12 @@
         <v>183</v>
       </c>
       <c r="G261" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B262">
         <v>184</v>
@@ -6899,12 +6907,12 @@
         <v>184</v>
       </c>
       <c r="G262" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B263">
         <v>185</v>
@@ -6916,12 +6924,12 @@
         <v>185</v>
       </c>
       <c r="G263" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>186</v>
@@ -6933,12 +6941,12 @@
         <v>186</v>
       </c>
       <c r="G264" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B265">
         <v>187</v>
@@ -6950,12 +6958,12 @@
         <v>187</v>
       </c>
       <c r="G265" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B266">
         <v>188</v>
@@ -6967,12 +6975,12 @@
         <v>188</v>
       </c>
       <c r="G266" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B267">
         <v>189</v>
@@ -6984,12 +6992,12 @@
         <v>189</v>
       </c>
       <c r="G267" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B268">
         <v>190</v>
@@ -7001,12 +7009,12 @@
         <v>190</v>
       </c>
       <c r="G268" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B269">
         <v>191</v>
@@ -7018,12 +7026,12 @@
         <v>191</v>
       </c>
       <c r="G269" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B270">
         <v>192</v>
@@ -7035,12 +7043,12 @@
         <v>192</v>
       </c>
       <c r="G270" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B271">
         <v>193</v>
@@ -7052,12 +7060,12 @@
         <v>193</v>
       </c>
       <c r="G271" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B272">
         <v>194</v>
@@ -7069,12 +7077,12 @@
         <v>194</v>
       </c>
       <c r="G272" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B273">
         <v>195</v>
@@ -7086,12 +7094,12 @@
         <v>195</v>
       </c>
       <c r="G273" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B274">
         <v>196</v>
@@ -7103,12 +7111,12 @@
         <v>196</v>
       </c>
       <c r="G274" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B275">
         <v>197</v>
@@ -7120,12 +7128,12 @@
         <v>197</v>
       </c>
       <c r="G275" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B276">
         <v>198</v>
@@ -7137,12 +7145,12 @@
         <v>198</v>
       </c>
       <c r="G276" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B277">
         <v>199</v>
@@ -7154,12 +7162,12 @@
         <v>199</v>
       </c>
       <c r="G277" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B278">
         <v>200</v>
@@ -7171,12 +7179,12 @@
         <v>200</v>
       </c>
       <c r="G278" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B279">
         <v>201</v>
@@ -7188,12 +7196,12 @@
         <v>201</v>
       </c>
       <c r="G279" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B280">
         <v>202</v>
@@ -7205,12 +7213,12 @@
         <v>202</v>
       </c>
       <c r="G280" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B281">
         <v>203</v>
@@ -7222,12 +7230,12 @@
         <v>203</v>
       </c>
       <c r="G281" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B282">
         <v>204</v>
@@ -7239,12 +7247,12 @@
         <v>204</v>
       </c>
       <c r="G282" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B283">
         <v>205</v>
@@ -7256,12 +7264,12 @@
         <v>205</v>
       </c>
       <c r="G283" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B284">
         <v>206</v>
@@ -7273,12 +7281,12 @@
         <v>206</v>
       </c>
       <c r="G284" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B285">
         <v>207</v>
@@ -7290,12 +7298,12 @@
         <v>207</v>
       </c>
       <c r="G285" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B286">
         <v>208</v>
@@ -7307,12 +7315,12 @@
         <v>208</v>
       </c>
       <c r="G286" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287">
         <v>209</v>
@@ -7324,12 +7332,12 @@
         <v>209</v>
       </c>
       <c r="G287" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B288">
         <v>210</v>
@@ -7341,12 +7349,12 @@
         <v>210</v>
       </c>
       <c r="G288" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B289">
         <v>211</v>
@@ -7358,12 +7366,12 @@
         <v>211</v>
       </c>
       <c r="G289" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B290">
         <v>212</v>
@@ -7375,12 +7383,12 @@
         <v>212</v>
       </c>
       <c r="G290" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B291">
         <v>213</v>
@@ -7392,12 +7400,12 @@
         <v>213</v>
       </c>
       <c r="G291" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B292">
         <v>214</v>
@@ -7409,12 +7417,12 @@
         <v>214</v>
       </c>
       <c r="G292" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B293">
         <v>215</v>
@@ -7426,12 +7434,12 @@
         <v>215</v>
       </c>
       <c r="G293" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B294">
         <v>216</v>
@@ -7443,12 +7451,12 @@
         <v>216</v>
       </c>
       <c r="G294" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B295">
         <v>217</v>
@@ -7460,12 +7468,12 @@
         <v>217</v>
       </c>
       <c r="G295" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B296">
         <v>218</v>
@@ -7477,12 +7485,12 @@
         <v>218</v>
       </c>
       <c r="G296" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B297">
         <v>219</v>
@@ -7494,12 +7502,12 @@
         <v>219</v>
       </c>
       <c r="G297" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B298">
         <v>220</v>
@@ -7511,12 +7519,12 @@
         <v>220</v>
       </c>
       <c r="G298" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B299">
         <v>221</v>
@@ -7528,12 +7536,12 @@
         <v>221</v>
       </c>
       <c r="G299" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B300">
         <v>222</v>
@@ -7545,12 +7553,12 @@
         <v>222</v>
       </c>
       <c r="G300" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B301">
         <v>223</v>
@@ -7562,12 +7570,12 @@
         <v>223</v>
       </c>
       <c r="G301" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B302">
         <v>224</v>
@@ -7579,12 +7587,12 @@
         <v>224</v>
       </c>
       <c r="G302" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B303">
         <v>225</v>
@@ -7596,12 +7604,12 @@
         <v>225</v>
       </c>
       <c r="G303" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B304">
         <v>226</v>
@@ -7613,12 +7621,12 @@
         <v>226</v>
       </c>
       <c r="G304" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B305">
         <v>227</v>
@@ -7630,12 +7638,12 @@
         <v>227</v>
       </c>
       <c r="G305" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B306">
         <v>228</v>
@@ -7647,12 +7655,12 @@
         <v>228</v>
       </c>
       <c r="G306" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B307">
         <v>229</v>
@@ -7664,12 +7672,12 @@
         <v>229</v>
       </c>
       <c r="G307" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B308">
         <v>230</v>
@@ -7681,12 +7689,12 @@
         <v>230</v>
       </c>
       <c r="G308" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B309">
         <v>231</v>
@@ -7698,12 +7706,12 @@
         <v>231</v>
       </c>
       <c r="G309" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B310">
         <v>232</v>
@@ -7715,12 +7723,12 @@
         <v>232</v>
       </c>
       <c r="G310" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B311">
         <v>233</v>
@@ -7732,12 +7740,12 @@
         <v>233</v>
       </c>
       <c r="G311" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B312">
         <v>234</v>
@@ -7749,12 +7757,12 @@
         <v>234</v>
       </c>
       <c r="G312" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B313">
         <v>235</v>
@@ -7766,12 +7774,12 @@
         <v>235</v>
       </c>
       <c r="G313" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B314">
         <v>236</v>
@@ -7783,12 +7791,12 @@
         <v>236</v>
       </c>
       <c r="G314" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B315">
         <v>237</v>
@@ -7800,12 +7808,12 @@
         <v>237</v>
       </c>
       <c r="G315" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B316">
         <v>238</v>
@@ -7817,12 +7825,12 @@
         <v>238</v>
       </c>
       <c r="G316" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B317">
         <v>239</v>
@@ -7834,12 +7842,12 @@
         <v>239</v>
       </c>
       <c r="G317" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B318">
         <v>240</v>
@@ -7851,12 +7859,12 @@
         <v>240</v>
       </c>
       <c r="G318" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B319">
         <v>241</v>
@@ -7868,12 +7876,12 @@
         <v>241</v>
       </c>
       <c r="G319" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B320">
         <v>242</v>
@@ -7885,12 +7893,12 @@
         <v>242</v>
       </c>
       <c r="G320" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B321">
         <v>243</v>
@@ -7902,12 +7910,12 @@
         <v>243</v>
       </c>
       <c r="G321" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B322">
         <v>244</v>
@@ -7919,12 +7927,12 @@
         <v>244</v>
       </c>
       <c r="G322" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B323">
         <v>245</v>
@@ -7936,12 +7944,12 @@
         <v>245</v>
       </c>
       <c r="G323" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B324">
         <v>246</v>
@@ -7953,12 +7961,12 @@
         <v>246</v>
       </c>
       <c r="G324" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B325">
         <v>247</v>
@@ -7970,12 +7978,12 @@
         <v>247</v>
       </c>
       <c r="G325" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B326">
         <v>248</v>
@@ -7987,12 +7995,12 @@
         <v>248</v>
       </c>
       <c r="G326" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B327">
         <v>249</v>
@@ -8004,12 +8012,12 @@
         <v>249</v>
       </c>
       <c r="G327" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B328">
         <v>250</v>
@@ -8021,7 +8029,7 @@
         <v>250</v>
       </c>
       <c r="G328" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -8051,24 +8059,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/STP/st_lf_tas1_3_fts_result_202204.xlsx
+++ b/LF/TAS/STP/st_lf_tas1_3_fts_result_202204.xlsx
@@ -75,10 +75,10 @@
     <t>d_recorderID</t>
   </si>
   <si>
-    <t>Enter Recorder ID</t>
-  </si>
-  <si>
-    <t>If you are the only recorder on your team, this may be called a "team ID". Recorder ID is the 2-digit code assigned to you or your team.</t>
+    <t>Introduzir o ID do gravador</t>
+  </si>
+  <si>
+    <t>Se for o único gravador da sua equipa, este pode ser chamado de "identificação da equipa". O ID do gravador é um código de 2 dígitos que lhe foi atribuído a si ou à sua equipa.</t>
   </si>
   <si>
     <t>Entrer l'identifiant de l'enregistreur</t>
@@ -889,10 +889,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Abr 2022) 3. TAS1 FL - Resultado FTS V2</t>
-  </si>
-  <si>
-    <t>st_lf_tas1_3_fts_result_202204_2</t>
+    <t>(Abr 2022) 3. TAS1 FL - Resultado FTS V3</t>
+  </si>
+  <si>
+    <t>st_lf_tas1_3_fts_result_202204_3</t>
   </si>
   <si>
     <t>Portugese</t>
@@ -904,9 +904,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -960,7 +960,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,8 +1018,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,54 +1065,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,30 +1074,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,8 +1087,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,7 +1122,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,7 +1182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,31 +1200,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,61 +1278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,37 +1290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,19 +1302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,15 +1364,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1394,17 +1385,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,6 +1409,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1438,165 +1458,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1652,7 +1652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1661,7 +1661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2053,7 +2053,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2173,10 +2173,10 @@
       <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="31" t="s">
         <v>30</v>
       </c>
@@ -2201,10 +2201,10 @@
       <c r="B4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="31" t="s">
         <v>34</v>
       </c>
@@ -2231,10 +2231,10 @@
       <c r="B5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="31" t="s">
         <v>39</v>
       </c>
@@ -2261,10 +2261,10 @@
       <c r="B6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2301,10 +2301,10 @@
       <c r="B7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="28" t="s">
@@ -2345,7 +2345,7 @@
       <c r="H8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="20" t="s">
         <v>61</v>
       </c>
       <c r="J8" s="39" t="s">
@@ -8047,8 +8047,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
